--- a/RNAseq/Data/PC1genestatsWT.xlsx
+++ b/RNAseq/Data/PC1genestatsWT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilbar\Documents\MATLAB\DreammistPaper\RNAseq\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E34B1664-778C-4BAD-A145-B92E0D130EE9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BE58283-FAA1-43A7-861C-D4E2D2189093}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12610" windowHeight="7430" xr2:uid="{27A08B8B-A509-4FB7-8A41-7636CEDB074E}"/>
   </bookViews>
